--- a/Dataset/Classification/Customer Churn/Train/Feature_Selected.xlsx
+++ b/Dataset/Classification/Customer Churn/Train/Feature_Selected.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dataset/Classification/Customer Churn/Train/Feature_Selected.xlsx
+++ b/Dataset/Classification/Customer Churn/Train/Feature_Selected.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
